--- a/results/synechocystis_sp_pcc_6803/Iron_depletion_oxidative_stress_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Iron_depletion_oxidative_stress_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_24h_30_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_24h_30_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_28h_mv_30_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_28h_mv_30_Presence" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_24h_30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_24h_30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-wt_28h_mv_30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-deletion_IsiA_28h_mv_30" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,885 +460,885 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.112738172176531e-68</v>
+        <v>1.325954083806824e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9662921348314607</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9662921348314607</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.17391099873901e-46</v>
+        <v>5.993029616760061e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.065877033748695e-43</v>
+        <v>0.006773222850697003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6850393700787402</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6850393700787402</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.825424431893246e-29</v>
+        <v>0.00970866681803112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.539160860475132e-21</v>
+        <v>0.01035451396436876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.849096527273719e-19</v>
+        <v>0.01987931689397983</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.337932009525369e-15</v>
+        <v>0.02850546387761526</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.489199626954938e-15</v>
+        <v>0.02850546387761526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.835683911488501e-15</v>
+        <v>0.03547764666319149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8461538461538461</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.966291134286343e-14</v>
+        <v>0.04077666022024026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8695652173913043</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.165658333399976e-11</v>
+        <v>0.04077666022024026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8421052631578947</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.859039222831983e-10</v>
+        <v>0.08600338291947356</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.418524182122963e-10</v>
+        <v>0.1190016811941538</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9285714285714286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.21266051432604e-09</v>
+        <v>0.1190016811941538</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.075270049239683e-09</v>
+        <v>0.1190016811941538</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9230769230769231</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.715941393259918e-09</v>
+        <v>0.1284160846395649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6666666666666666</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.201592805901067e-09</v>
+        <v>0.1698892553487253</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7777777777777778</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.136744845023821e-08</v>
+        <v>0.2584129572600122</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.136744845023821e-08</v>
+        <v>0.2584129572600122</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.475569152916098e-08</v>
+        <v>0.3169433146040292</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9090909090909091</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.439725332833031e-06</v>
+        <v>0.3169433146040292</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.439725332833031e-06</v>
+        <v>0.3457353005083039</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7692307692307693</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.162928196179177e-06</v>
+        <v>0.3876123802587816</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.162928196179177e-06</v>
+        <v>0.4243271261215832</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.162928196179177e-06</v>
+        <v>0.4264360792653359</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.162928196179177e-06</v>
+        <v>0.4566634324928363</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.162928196179177e-06</v>
+        <v>0.4566634324928363</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.162928196179177e-06</v>
+        <v>0.4815045721180501</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.118565612183202e-05</v>
+        <v>0.4928445260557115</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.053408024036712e-05</v>
+        <v>0.4988138599393036</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.053408024036712e-05</v>
+        <v>0.535451103795575</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.053408024036712e-05</v>
+        <v>0.5376529759399056</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001681958347445165</v>
+        <v>0.5879322295354631</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0008328192881154</v>
+        <v>0.6616638664557298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5833333333333334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002560005708513078</v>
+        <v>0.7489256057786511</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003357236819820358</v>
+        <v>0.8777044658526337</v>
       </c>
       <c r="D37" t="n">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.625</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003767111070864564</v>
+        <v>0.9445761986831072</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006733647309838026</v>
+        <v>0.9639164063787662</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02424625764284208</v>
+        <v>0.9738065890850864</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02424625764284208</v>
+        <v>0.9738065890850864</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02424625764284208</v>
+        <v>0.9922138260647861</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0294478891016642</v>
+        <v>0.9922638065437348</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4923127030828414</v>
+        <v>0.9922638065437348</v>
       </c>
       <c r="D44" t="n">
         <v>0.25</v>
       </c>
       <c r="E44" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5715097176589038</v>
+        <v>0.999919593557574</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5792781671355239</v>
+        <v>0.9999994150220369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.9999999999999668</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1405,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1424,7 +1424,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nucleotide sugars metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Steroid biosynthesis</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,439 +1546,439 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.883806059577559e-48</v>
+        <v>1.702049062882565e-20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7086614173228346</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7086614173228346</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.578851778843069e-43</v>
+        <v>1.159210117851381e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7865168539325843</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7865168539325843</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.467267250460919e-39</v>
+        <v>0.001882682243083647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8428571428571429</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.390172084854585e-30</v>
+        <v>0.002917591020985456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.638159463896771e-19</v>
+        <v>0.004444359082146305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7894736842105263</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.688933505400233e-16</v>
+        <v>0.01565181227440923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9130434782608695</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.489163804080399e-16</v>
+        <v>0.02378407060915565</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.681179566254399e-14</v>
+        <v>0.02378407060915565</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7666666666666667</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.862001718779156e-14</v>
+        <v>0.07191348054107763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8076923076923077</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.378063883389056e-11</v>
+        <v>0.08315166315895257</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7826086956521739</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.580013322390574e-11</v>
+        <v>0.08315166315895257</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8421052631578947</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.496880256171907e-11</v>
+        <v>0.08315166315895257</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.555163689016218e-10</v>
+        <v>0.0969743956218735</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.069754619394242e-09</v>
+        <v>0.1260496943292956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9230769230769231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.406593630904995e-09</v>
+        <v>0.1857217637132681</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7777777777777778</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.165744743120624e-08</v>
+        <v>0.1857217637132681</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6296296296296297</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.108151203910142e-08</v>
+        <v>0.1954387903131142</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.108151203910142e-08</v>
+        <v>0.2218183849460289</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.455588889412079e-07</v>
+        <v>0.2218183849460289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.455588889412079e-07</v>
+        <v>0.2861252355748122</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.464362388299143e-06</v>
+        <v>0.2891358993119948</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.464362388299143e-06</v>
+        <v>0.3217317662239112</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.464362388299143e-06</v>
+        <v>0.3326139606819054</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1911,41 +1987,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.464362388299143e-06</v>
+        <v>0.3405398501810107</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.464362388299143e-06</v>
+        <v>0.3776291540947203</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1953,132 +2029,132 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.57028234416282e-06</v>
+        <v>0.3776291540947203</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7142857142857143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.284120440370795e-06</v>
+        <v>0.4044140334966643</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.1405233234254e-05</v>
+        <v>0.4044140334966643</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8571428571428571</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.855429018646167e-05</v>
+        <v>0.5295739208656798</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.855429018646167e-05</v>
+        <v>0.5953694615707941</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.855429018646167e-05</v>
+        <v>0.8197894092669488</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0001167907460597871</v>
+        <v>0.9078246566477428</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2086,151 +2162,151 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0005879834856495576</v>
+        <v>0.9297882138904503</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5833333333333334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.002065515372840244</v>
+        <v>0.9463385478856875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002383377372440112</v>
+        <v>0.9615273036023219</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5454545454545454</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Photosynthesis</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9632548038336791</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="E37" t="n">
         <v>13</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.002603462685651404</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.625</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003189128965372242</v>
+        <v>0.9632548038336791</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02170019856880596</v>
+        <v>0.9870713845826408</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02170019856880596</v>
+        <v>0.9870713845826408</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02528341779408292</v>
+        <v>0.9980273498828305</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2238,79 +2314,79 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2174002464746881</v>
+        <v>0.9985500736261099</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5467723302419831</v>
+        <v>0.9986709694859438</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1666666666666667</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5497454969959759</v>
+        <v>0.9999861225536398</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0.999999999996496</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2320,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2339,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2358,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2377,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2396,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2415,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2434,7 +2510,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nucleotide sugars metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutathione metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,178 +2632,178 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.699535023820757e-65</v>
+        <v>4.182936134378943e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9438202247191011</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9438202247191011</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.184944249830897e-47</v>
+        <v>1.216638875983467e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.065072900818192e-41</v>
+        <v>0.001983460438269057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6692913385826772</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6692913385826772</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.855685611174938e-30</v>
+        <v>0.002990792229397279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.736686116230947e-21</v>
+        <v>0.004547716270103197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.768486971923243e-20</v>
+        <v>0.01593031427217451</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.076526517726968e-15</v>
+        <v>0.01734236766233545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.27767028245836e-13</v>
+        <v>0.02416427777697519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8076923076923077</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8076923076923077</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.378379673255895e-13</v>
+        <v>0.02416427777697519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9444444444444444</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2659,607 +2811,607 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.264455823734741e-10</v>
+        <v>0.07318257618942046</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.284908622606741e-10</v>
+        <v>0.08403312955286373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7037037037037037</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7037037037037037</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.520023764688848e-10</v>
+        <v>0.08403312955286373</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.755004287303008e-10</v>
+        <v>0.09826994932018128</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7894736842105263</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.418954585884386e-09</v>
+        <v>0.1271612436620054</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9230769230769231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.688218143822273e-09</v>
+        <v>0.1875688933205134</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7777777777777778</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.216109298383075e-09</v>
+        <v>0.1875688933205134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6956521739130435</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.850228970174955e-08</v>
+        <v>0.2242409032916336</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.850228970174955e-08</v>
+        <v>0.2242409032916336</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.06105827509443e-06</v>
+        <v>0.2887898495642396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7692307692307693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.06105827509443e-06</v>
+        <v>0.2906603416633761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.729167349565238e-06</v>
+        <v>0.3365501181374026</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.729167349565238e-06</v>
+        <v>0.3428018142077138</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.729167349565238e-06</v>
+        <v>0.3428018142077138</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.729167349565238e-06</v>
+        <v>0.3809160451833579</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.729167349565238e-06</v>
+        <v>0.3809160451833579</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.729167349565238e-06</v>
+        <v>0.4094509875126455</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.213512540227502e-06</v>
+        <v>0.4094509875126455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.746283772634208e-06</v>
+        <v>0.4390500950388893</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.202576499912137e-05</v>
+        <v>0.5335794740742608</v>
       </c>
       <c r="D30" t="n">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.875</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.717976709249604e-05</v>
+        <v>0.5399845793719007</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.717976709249604e-05</v>
+        <v>0.6730963500787814</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.717976709249604e-05</v>
+        <v>0.7266002659011537</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001364584195951627</v>
+        <v>0.7279081990144076</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0003265516869777439</v>
+        <v>0.8216068453984836</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002263474616105065</v>
+        <v>0.8924821350325017</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003423710510707404</v>
+        <v>0.9090476043250372</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.005979879211550039</v>
+        <v>0.9478144718316358</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6666666666666666</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02275071056484487</v>
+        <v>0.9619225710310652</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02275071056484487</v>
+        <v>0.9872484889034264</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02275071056484487</v>
+        <v>0.9872484889034264</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02698360265620386</v>
+        <v>0.9987333327702537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3267,79 +3419,79 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.09360764371770622</v>
+        <v>0.9994447263852214</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3333333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.558977532966717</v>
+        <v>0.9996588092819663</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.560576586958899</v>
+        <v>0.9999872168360265</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9999999999971463</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3349,16 +3501,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3368,16 +3520,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3387,12 +3539,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3406,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3425,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3444,7 +3596,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nucleotide sugars metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutathione metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3458,7 +3686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3490,159 +3718,159 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.23464407116145e-54</v>
+        <v>5.320782123034143e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8764044943820225</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8764044943820225</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.839939533337952e-47</v>
+        <v>7.11331078637768e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.158649831736936e-44</v>
+        <v>0.001105241024478803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6850393700787402</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6850393700787402</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.055408204215044e-30</v>
+        <v>0.00227166993527895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.015921876230141e-18</v>
+        <v>0.01309830656340551</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7894736842105263</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.009530520939476e-15</v>
+        <v>0.02026440906729765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.803847274705987e-14</v>
+        <v>0.02026440906729765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8076923076923077</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8076923076923077</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.011420696359877e-13</v>
+        <v>0.06018815986865118</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9444444444444444</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3650,507 +3878,507 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.517060935112123e-11</v>
+        <v>0.06018815986865118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7826086956521739</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.015161608889432e-10</v>
+        <v>0.07475267974455323</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.967872311761605e-10</v>
+        <v>0.07475267974455323</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.142512225078008e-09</v>
+        <v>0.07475267974455323</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9230769230769231</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.669753680646415e-09</v>
+        <v>0.08475933160232695</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7777777777777778</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.969324796488706e-09</v>
+        <v>0.1114615205317235</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6956521739130435</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.206141968794885e-08</v>
+        <v>0.1153557539942926</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7368421052631579</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7368421052631579</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.270437550112181e-08</v>
+        <v>0.1679660896750978</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6296296296296297</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.267061112088624e-08</v>
+        <v>0.1679660896750978</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.267061112088624e-08</v>
+        <v>0.1985516626869917</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.914924580567499e-07</v>
+        <v>0.1985516626869917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.914924580567499e-07</v>
+        <v>0.2602834878685459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.52215975850952e-06</v>
+        <v>0.2741836055473308</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.52215975850952e-06</v>
+        <v>0.2945361420077713</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.52215975850952e-06</v>
+        <v>0.3183711252429893</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.52215975850952e-06</v>
+        <v>0.3454666441343289</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.52215975850952e-06</v>
+        <v>0.3454666441343289</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.707614139486448e-06</v>
+        <v>0.355327112734698</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.601281962417143e-06</v>
+        <v>0.4896649797693359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.6875</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.061502884538651e-05</v>
+        <v>0.6474965834792068</v>
       </c>
       <c r="D29" t="n">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.875</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.342426113922664e-05</v>
+        <v>0.6721735857109505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8571428571428571</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.047268174978797e-05</v>
+        <v>0.707211790966803</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.047268174978797e-05</v>
+        <v>0.8011140669033457</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.047268174978797e-05</v>
+        <v>0.8667517211156315</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001211046267994289</v>
+        <v>0.8723780988946621</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0002905885615492602</v>
+        <v>0.8778044537885163</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6363636363636364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002110027366276341</v>
+        <v>0.9298263416270882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -4159,197 +4387,197 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003242280150701008</v>
+        <v>0.9348276736328872</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.004299336740382486</v>
+        <v>0.9550918272842417</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.005588063088817684</v>
+        <v>0.957423154630145</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02194042054272535</v>
+        <v>0.9851971200400156</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02194042054272535</v>
+        <v>0.9851971200400156</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02194042054272535</v>
+        <v>0.994688213487894</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02566988331768233</v>
+        <v>0.9993784878557235</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5499797361981656</v>
+        <v>0.9994789834757895</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1666666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5518895625923499</v>
+        <v>0.9999692106556681</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9999999999744048</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4359,16 +4587,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4378,16 +4606,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4397,12 +4625,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4416,16 +4644,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -4435,16 +4663,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -4454,7 +4682,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nucleotide sugars metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutathione metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
